--- a/data/trans_dic/P1001-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1001-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05836290192610977</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05520161160938476</v>
+        <v>0.05520161160938475</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.06641182968194881</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03034391625168741</v>
+        <v>0.03097278176295628</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04966608487570651</v>
+        <v>0.04984137396289725</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04298987391277209</v>
+        <v>0.04154900242654988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04083361238486646</v>
+        <v>0.04045816748432718</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04951694830247164</v>
+        <v>0.04987628907747084</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1251074775995941</v>
+        <v>0.1233412989319644</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1018242809732618</v>
+        <v>0.1021611278919791</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09192769338694116</v>
+        <v>0.08988398513210133</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04367988712284784</v>
+        <v>0.0430069806661103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09379677651908917</v>
+        <v>0.09247611756810627</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07682230896587718</v>
+        <v>0.07794995306852344</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06992970736314304</v>
+        <v>0.07129031953792665</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06086388985615374</v>
+        <v>0.05991791319461138</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0881995384450821</v>
+        <v>0.09105000004507563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07975022568757088</v>
+        <v>0.07801306365024144</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07423262258521753</v>
+        <v>0.07491428002366211</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08733095382424454</v>
+        <v>0.08995279118459454</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1823467006124292</v>
+        <v>0.1776357801775996</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.155077368604524</v>
+        <v>0.1535059669788621</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1273213826474635</v>
+        <v>0.1256761945330376</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06813400824128145</v>
+        <v>0.06730972214247528</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.126886013666862</v>
+        <v>0.1254730545095107</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1098615909437359</v>
+        <v>0.1100437755803765</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09462374402620584</v>
+        <v>0.09722824427286807</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.08566108702384312</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.08220689396879984</v>
+        <v>0.08220689396879986</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04422936855016962</v>
+        <v>0.04583217243187399</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06543179213306044</v>
+        <v>0.06472320313454293</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03575760800053158</v>
+        <v>0.03710567023790311</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04034352497986558</v>
+        <v>0.04075305816124282</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05831851305074304</v>
+        <v>0.05964416654944564</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1342772791114453</v>
+        <v>0.1347051949288743</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1006807758204847</v>
+        <v>0.1022889824112614</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09618033207062722</v>
+        <v>0.09604921234309186</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05782134827284242</v>
+        <v>0.05675296078985165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1061880245442415</v>
+        <v>0.1047305153724596</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07341045500788032</v>
+        <v>0.07328225254079515</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.07236923404853203</v>
+        <v>0.07251228120877447</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07650527844465757</v>
+        <v>0.07478373101078833</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1021337235478816</v>
+        <v>0.1006426857851887</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06356109632426959</v>
+        <v>0.06544530041276221</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0678861922863046</v>
+        <v>0.06878087953629884</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09651490730035923</v>
+        <v>0.09548501828472911</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1804536915126253</v>
+        <v>0.1817791133738081</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1438303881249096</v>
+        <v>0.1455121443235155</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1292031612856577</v>
+        <v>0.1284648389781984</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08034405180708357</v>
+        <v>0.08133300837779836</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1358441536645909</v>
+        <v>0.1363285854300871</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09869760145361589</v>
+        <v>0.09877370296601429</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.09427446807781878</v>
+        <v>0.09501738083247331</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1304410148648981</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1200400342252252</v>
+        <v>0.1200400342252251</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1033600148450788</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05368140294178866</v>
+        <v>0.05399306540774515</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03854975402245427</v>
+        <v>0.03775448969056314</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04298572056421451</v>
+        <v>0.04335749219356643</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06195118239228224</v>
+        <v>0.06139018197339028</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1086070998215311</v>
+        <v>0.1069891666736603</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1082404341906248</v>
+        <v>0.109821739716497</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.106304934066079</v>
+        <v>0.1061918107607003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1013725747416253</v>
+        <v>0.09889789987987167</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08743331949116316</v>
+        <v>0.08619039865612306</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07795441308464654</v>
+        <v>0.07933031936063592</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08121847379544685</v>
+        <v>0.08046320291306644</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08524876924438461</v>
+        <v>0.08570172482215417</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09533701083578672</v>
+        <v>0.09634223218266035</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07774409906482013</v>
+        <v>0.07529206377188745</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0811509383766873</v>
+        <v>0.08193823641717886</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1071485812047639</v>
+        <v>0.1067945232702237</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1598271744907788</v>
+        <v>0.1607199982376827</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1584740349859409</v>
+        <v>0.1605493132036422</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.158273504729961</v>
+        <v>0.1569807630764248</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1451866193076086</v>
+        <v>0.1416205943799445</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1223976878811855</v>
+        <v>0.119294005335718</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1117024015630485</v>
+        <v>0.1100619226513544</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1139391144613897</v>
+        <v>0.1112508172009948</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1166466190297713</v>
+        <v>0.1175235089332981</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.09567872493372231</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09385238224576606</v>
+        <v>0.09385238224576604</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05000646991911181</v>
+        <v>0.05026490959062454</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0586756534883331</v>
+        <v>0.05780637668136978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06072023079720389</v>
+        <v>0.05957308423490335</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04190457040947542</v>
+        <v>0.04188831203447903</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.08568189645283672</v>
+        <v>0.08525163790465888</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1234755552016136</v>
+        <v>0.1221358671679563</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09424504559453742</v>
+        <v>0.09591395451612539</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1091690008818084</v>
+        <v>0.1112174204080197</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07441729722968861</v>
+        <v>0.07370813889037571</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09713698540307143</v>
+        <v>0.09678862977327574</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08342317737190405</v>
+        <v>0.08210557225930845</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08273882323233306</v>
+        <v>0.08318621002809101</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08233178590267073</v>
+        <v>0.08284300650483524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09397134004188559</v>
+        <v>0.09332918775648674</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09637804447592072</v>
+        <v>0.0949419489227333</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07360255299765336</v>
+        <v>0.07258014292221966</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1231567989603468</v>
+        <v>0.1225826243094392</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1674439462294249</v>
+        <v>0.1672413206974429</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1366866682838138</v>
+        <v>0.1349623621602618</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1433530573837562</v>
+        <v>0.1478859680744707</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09913536003791863</v>
+        <v>0.09893528909594075</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1276632947916483</v>
+        <v>0.1257339660976128</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1100206647450153</v>
+        <v>0.1087467918736884</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1051114731938519</v>
+        <v>0.1057167109518591</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06068173036960494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06034418047230313</v>
+        <v>0.06034418047230312</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09418657804059452</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05267195587884388</v>
+        <v>0.05227240151528485</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06185224740457211</v>
+        <v>0.06209904754070825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05308202963644859</v>
+        <v>0.05218621363497108</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05179837951076721</v>
+        <v>0.05271725443414551</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0846746605406602</v>
+        <v>0.08514528957696474</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1351450546101484</v>
+        <v>0.1328920882567099</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1112968044537273</v>
+        <v>0.1100852129923712</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1088412833356539</v>
+        <v>0.1092219723121166</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07135228189787658</v>
+        <v>0.07061828985087525</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1017464252094645</v>
+        <v>0.10149722128998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08441959689155042</v>
+        <v>0.08508695632309336</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08314243605570952</v>
+        <v>0.08331820475284615</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06912925252787379</v>
+        <v>0.0688601605854352</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08103173190313216</v>
+        <v>0.08076124227616446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0704316135563418</v>
+        <v>0.06900440433799734</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06911117552960751</v>
+        <v>0.06983770990662558</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.104376920821613</v>
+        <v>0.1052476433582234</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1594838828747832</v>
+        <v>0.1582282432118647</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1341653060517832</v>
+        <v>0.1346688398454618</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.126222377323017</v>
+        <v>0.1277452635284213</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08440880002483227</v>
+        <v>0.08408111226743126</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1176697260291787</v>
+        <v>0.1170330096461511</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09925869205533623</v>
+        <v>0.09907903462254825</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.09576551880940681</v>
+        <v>0.09619926319098088</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21059</v>
+        <v>21495</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>34939</v>
+        <v>35062</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29010</v>
+        <v>28037</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>28204</v>
+        <v>27945</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>34085</v>
+        <v>34332</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>87206</v>
+        <v>85975</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>68511</v>
+        <v>68738</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>67338</v>
+        <v>65841</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>60381</v>
+        <v>59451</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>131364</v>
+        <v>129515</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>103529</v>
+        <v>105048</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>99525</v>
+        <v>101462</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>42240</v>
+        <v>41584</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>62046</v>
+        <v>64051</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>53815</v>
+        <v>52643</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51273</v>
+        <v>51744</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60114</v>
+        <v>61919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>127105</v>
+        <v>123821</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>104342</v>
+        <v>103285</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>93264</v>
+        <v>92059</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>94186</v>
+        <v>93046</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>177706</v>
+        <v>175727</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>148054</v>
+        <v>148299</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>134671</v>
+        <v>138377</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>42540</v>
+        <v>44081</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>66537</v>
+        <v>65817</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>36560</v>
+        <v>37938</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42317</v>
+        <v>42747</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>56475</v>
+        <v>57759</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>138599</v>
+        <v>139041</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>105001</v>
+        <v>106679</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>102927</v>
+        <v>102787</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>111606</v>
+        <v>109544</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>217587</v>
+        <v>214601</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>151618</v>
+        <v>151353</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>153355</v>
+        <v>153658</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>73583</v>
+        <v>71927</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>103859</v>
+        <v>102343</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64987</v>
+        <v>66913</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71207</v>
+        <v>72145</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>93464</v>
+        <v>92467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>186261</v>
+        <v>187629</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>150003</v>
+        <v>151757</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>138266</v>
+        <v>137476</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>155080</v>
+        <v>156988</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>278355</v>
+        <v>279348</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>203844</v>
+        <v>204002</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>199774</v>
+        <v>201348</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>36423</v>
+        <v>36635</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29206</v>
+        <v>28604</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32650</v>
+        <v>32932</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>49751</v>
+        <v>49301</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>74270</v>
+        <v>73164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>84007</v>
+        <v>85235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>83451</v>
+        <v>83362</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>82341</v>
+        <v>80331</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>119115</v>
+        <v>117421</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>119562</v>
+        <v>121672</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>125447</v>
+        <v>124280</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>137705</v>
+        <v>138437</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>64687</v>
+        <v>65369</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>58901</v>
+        <v>57043</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>61638</v>
+        <v>62236</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>86048</v>
+        <v>85764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>109296</v>
+        <v>109907</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>122995</v>
+        <v>124605</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>124246</v>
+        <v>123232</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>117929</v>
+        <v>115033</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>166748</v>
+        <v>162520</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>171323</v>
+        <v>168807</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>175986</v>
+        <v>171834</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>188423</v>
+        <v>189839</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>47117</v>
+        <v>47361</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>55554</v>
+        <v>54731</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56929</v>
+        <v>55854</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41438</v>
+        <v>41422</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>88990</v>
+        <v>88543</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>129767</v>
+        <v>128359</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>98371</v>
+        <v>100113</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>122039</v>
+        <v>124329</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>147408</v>
+        <v>146004</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>194056</v>
+        <v>193360</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>165290</v>
+        <v>162680</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>174310</v>
+        <v>175252</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77575</v>
+        <v>78057</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>88972</v>
+        <v>88364</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>90361</v>
+        <v>89014</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>72783</v>
+        <v>71772</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>127912</v>
+        <v>127316</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>175976</v>
+        <v>175763</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>142671</v>
+        <v>140871</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>160253</v>
+        <v>165320</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>196371</v>
+        <v>195974</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>255040</v>
+        <v>251186</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>217989</v>
+        <v>215465</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>221443</v>
+        <v>222718</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>172582</v>
+        <v>171273</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>211831</v>
+        <v>212676</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>180179</v>
+        <v>177138</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>182929</v>
+        <v>186174</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>286132</v>
+        <v>287723</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>480618</v>
+        <v>472605</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>394496</v>
+        <v>390202</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>406283</v>
+        <v>407704</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>474902</v>
+        <v>470017</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>710302</v>
+        <v>708562</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>585778</v>
+        <v>590409</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>603977</v>
+        <v>605254</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>226505</v>
+        <v>225623</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>277517</v>
+        <v>276590</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>239070</v>
+        <v>234225</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>244070</v>
+        <v>246636</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>352710</v>
+        <v>355653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>567174</v>
+        <v>562709</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>475555</v>
+        <v>477339</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>471164</v>
+        <v>476848</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>561803</v>
+        <v>559622</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>821464</v>
+        <v>817019</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>688745</v>
+        <v>687499</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>695676</v>
+        <v>698827</v>
       </c>
     </row>
     <row r="24">
